--- a/python标准库.xlsx
+++ b/python标准库.xlsx
@@ -1689,10 +1689,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2000,8 +2000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="A219" sqref="A219"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2012,16 +2012,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -3121,7 +3121,7 @@
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A220" s="7" t="s">
+      <c r="A220" s="6" t="s">
         <v>215</v>
       </c>
       <c r="B220" t="s">
@@ -3149,7 +3149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B131"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B113" sqref="B113:B131"/>
     </sheetView>
   </sheetViews>
